--- a/DevOps_Cheatsheet.xlsx
+++ b/DevOps_Cheatsheet.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Linux" sheetId="1" r:id="rId1"/>
-    <sheet name="Maven" sheetId="2" r:id="rId2"/>
-    <sheet name="Docker" sheetId="5" r:id="rId3"/>
-    <sheet name="K8s" sheetId="3" r:id="rId4"/>
+    <sheet name="GIT" sheetId="6" r:id="rId2"/>
+    <sheet name="Maven" sheetId="2" r:id="rId3"/>
+    <sheet name="Docker" sheetId="5" r:id="rId4"/>
+    <sheet name="K8s" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="1498">
   <si>
     <t>CREATING OBJECTS</t>
   </si>
@@ -2812,12 +2813,2713 @@
   <si>
     <t>Copies the final package to the remote repository for sharing with other developers and projects.</t>
   </si>
+  <si>
+    <t xml:space="preserve">GIT </t>
+  </si>
+  <si>
+    <t>git add &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Adds a specific file to the staging area for the next commit.</t>
+  </si>
+  <si>
+    <t>git add &lt;directory&gt;</t>
+  </si>
+  <si>
+    <t>Adds all files within a specific directory to the staging area for the next commit.</t>
+  </si>
+  <si>
+    <t>Adds all modified and untracked files to the staging area for the next commit.</t>
+  </si>
+  <si>
+    <t>Adds all modified and deleted files to the staging area for the next commit.</t>
+  </si>
+  <si>
+    <t>Interactively selects and adds changes within files to the staging area for the next commit.</t>
+  </si>
+  <si>
+    <t>Provides an interactive interface for selecting and adding changes to the staging area for the next commit.</t>
+  </si>
+  <si>
+    <t>Marks a file as "intent to add" to the staging area. This is useful for partially adding new files.</t>
+  </si>
+  <si>
+    <t>Interactively selects and adds changes within a specific file to the staging area for the next commit.</t>
+  </si>
+  <si>
+    <t>git add --ignore-errors</t>
+  </si>
+  <si>
+    <t>Ignores any errors encountered while adding files to the staging area.</t>
+  </si>
+  <si>
+    <t>git add --chmod=&lt;mode&gt;</t>
+  </si>
+  <si>
+    <t>Changes the file permissions of the added files to the specified mode.</t>
+  </si>
+  <si>
+    <t>git add --renormalize</t>
+  </si>
+  <si>
+    <t>Applies the text file normalization process to the added files.</t>
+  </si>
+  <si>
+    <t>git add --pathspec-from-file=&lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Adds files to the staging area based on the pathspecs listed in the specified file.</t>
+  </si>
+  <si>
+    <r>
+      <t>git add -A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git add --all</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git add -u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git add --update</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git add -p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git add --patch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git add -i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git add --interactive</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git add -N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git add --intent-to-add</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git add --patch &lt;file&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git add -p &lt;file&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>GIT ADD</t>
+  </si>
+  <si>
+    <t>GIT COMMIT</t>
+  </si>
+  <si>
+    <t>git commit</t>
+  </si>
+  <si>
+    <t>Commits the staged changes to the repository with a default commit message.</t>
+  </si>
+  <si>
+    <t>git commit -m "message"</t>
+  </si>
+  <si>
+    <t>Commits the staged changes to the repository with a custom commit message.</t>
+  </si>
+  <si>
+    <t>git commit -a</t>
+  </si>
+  <si>
+    <t>Commits all changes, including modifications and deletions, without explicitly staging them.</t>
+  </si>
+  <si>
+    <t>git commit --amend</t>
+  </si>
+  <si>
+    <t>Modifies the most recent commit by adding staged changes or modifying the commit message.</t>
+  </si>
+  <si>
+    <t>git commit --amend -m "new message"</t>
+  </si>
+  <si>
+    <t>Modifies the most recent commit with a new commit message.</t>
+  </si>
+  <si>
+    <t>git commit --author "name &lt;email&gt;"</t>
+  </si>
+  <si>
+    <t>Commits with a specific author name and email.</t>
+  </si>
+  <si>
+    <t>git commit --date "YYYY-MM-DD"</t>
+  </si>
+  <si>
+    <t>Commits with a specific date.</t>
+  </si>
+  <si>
+    <t>git commit --all --message "message"</t>
+  </si>
+  <si>
+    <t>Commits all changes, including modifications and deletions, with a custom commit message.</t>
+  </si>
+  <si>
+    <t>git commit --allow-empty</t>
+  </si>
+  <si>
+    <t>Commits an empty change with an empty commit message. Useful in certain scenarios like marking a milestone.</t>
+  </si>
+  <si>
+    <t>git commit --signoff</t>
+  </si>
+  <si>
+    <t>Commits with a sign-off line in the commit message, indicating acceptance of the Developer Certificate of Origin.</t>
+  </si>
+  <si>
+    <t>git commit --no-verify</t>
+  </si>
+  <si>
+    <t>Commits the changes without running pre-commit and commit-msg hooks.</t>
+  </si>
+  <si>
+    <t>git commit --no-edit</t>
+  </si>
+  <si>
+    <t>Commits the changes without opening the default editor to modify the commit message.</t>
+  </si>
+  <si>
+    <t>git commit --reuse-message=&lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Creates a new commit with the same message as the specified commit.</t>
+  </si>
+  <si>
+    <t>git commit --fixup=&lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Creates a fixup commit that can be used to fix or amend a previous commit.</t>
+  </si>
+  <si>
+    <t>git commit --squash=&lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Creates a squash commit that combines the changes from the specified commit into the previous commit.</t>
+  </si>
+  <si>
+    <t>git commit --reset-author</t>
+  </si>
+  <si>
+    <t>Resets the authorship information in the commit to match the committer's identity.</t>
+  </si>
+  <si>
+    <t>git commit --no-post-rewrite</t>
+  </si>
+  <si>
+    <t>Commits without performing any post-rewrite actions, such as autosquash or amend.</t>
+  </si>
+  <si>
+    <t>git commit --verbose</t>
+  </si>
+  <si>
+    <t>Shows the diff of the changes being committed in the commit message template.</t>
+  </si>
+  <si>
+    <t>git commit --gpg-sign</t>
+  </si>
+  <si>
+    <t>Commits with a GPG signature, providing a higher level of security for the commit.</t>
+  </si>
+  <si>
+    <t>git commit --no-gpg-sign</t>
+  </si>
+  <si>
+    <t>Commits without using GPG signature, even if the configuration suggests signing.</t>
+  </si>
+  <si>
+    <t>git commit --fixup=&lt;commit&gt; --autosquash</t>
+  </si>
+  <si>
+    <t>Automatically performs a squash commit and moves it into place during an interactive rebase using fixup commits.</t>
+  </si>
+  <si>
+    <t>GIT CLONE</t>
+  </si>
+  <si>
+    <t>git clone &lt;repository_url&gt;</t>
+  </si>
+  <si>
+    <t>Clones a remote repository to create a local copy.</t>
+  </si>
+  <si>
+    <t>git clone &lt;repository_url&gt; &lt;directory&gt;</t>
+  </si>
+  <si>
+    <t>Clones a remote repository to a specific directory on your local machine.</t>
+  </si>
+  <si>
+    <t>git clone --depth &lt;depth&gt; &lt;repository_url&gt;</t>
+  </si>
+  <si>
+    <t>Clones a remote repository with a specified depth, limiting the number of commits to fetch.</t>
+  </si>
+  <si>
+    <t>git clone --branch &lt;branch&gt; &lt;repository_url&gt;</t>
+  </si>
+  <si>
+    <t>Clones a specific branch from a remote repository.</t>
+  </si>
+  <si>
+    <t>git clone --recursive &lt;repository_url&gt;</t>
+  </si>
+  <si>
+    <t>Clones a remote repository and recursively clones any submodules within it.</t>
+  </si>
+  <si>
+    <t>git clone --filter &lt;filter_spec&gt; &lt;repository_url&gt;</t>
+  </si>
+  <si>
+    <t>Clones a remote repository with a specified filter, allowing for partial clone functionality.</t>
+  </si>
+  <si>
+    <t>git clone --bare &lt;repository_url&gt;</t>
+  </si>
+  <si>
+    <t>Clones a remote repository without checking out the working tree, creating a bare repository.</t>
+  </si>
+  <si>
+    <t>git clone --mirror &lt;repository_url&gt;</t>
+  </si>
+  <si>
+    <t>Clones a remote repository as a mirror, including all branches, tags, and remote references.</t>
+  </si>
+  <si>
+    <t>git clone --single-branch &lt;repository_url&gt;</t>
+  </si>
+  <si>
+    <t>Clones a remote repository, fetching only a single branch and its related history.</t>
+  </si>
+  <si>
+    <t>git clone --quiet &lt;repository_url&gt;</t>
+  </si>
+  <si>
+    <t>Clones a remote repository with minimal output, suppressing progress and informational messages.</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>Initializes a new Git repository in the current directory.</t>
+  </si>
+  <si>
+    <t>git init &lt;directory&gt;</t>
+  </si>
+  <si>
+    <t>Initializes a new Git repository in the specified directory.</t>
+  </si>
+  <si>
+    <t>git init --bare</t>
+  </si>
+  <si>
+    <t>Initializes a new bare Git repository, which does not have a working directory.</t>
+  </si>
+  <si>
+    <t>git init --template=&lt;template&gt;</t>
+  </si>
+  <si>
+    <t>Initializes a new Git repository using the specified template.</t>
+  </si>
+  <si>
+    <t>git init --separate-git-dir=&lt;dir&gt;</t>
+  </si>
+  <si>
+    <t>git init --quiet</t>
+  </si>
+  <si>
+    <t>Initializes a new Git repository without displaying the initialization information.</t>
+  </si>
+  <si>
+    <t>git init --initial-branch=&lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Initializes a new Git repository and sets the initial branch to the specified branch name.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initializes a new Git repository and specifies a separate directory for the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> directory.</t>
+    </r>
+  </si>
+  <si>
+    <t>GIT INIT</t>
+  </si>
+  <si>
+    <t>GIT STATUS</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>Displays the current status of the repository, including information about tracked/untracked files, branch information, and staging area status.</t>
+  </si>
+  <si>
+    <t>git status -s</t>
+  </si>
+  <si>
+    <t>git status -b</t>
+  </si>
+  <si>
+    <t>git status --porcelain</t>
+  </si>
+  <si>
+    <t>git status --ignored</t>
+  </si>
+  <si>
+    <t>git status --show-stash</t>
+  </si>
+  <si>
+    <t>Displays information about any stashed changes in the repository.</t>
+  </si>
+  <si>
+    <t>git status --short</t>
+  </si>
+  <si>
+    <t>git status --long</t>
+  </si>
+  <si>
+    <t>Shows the status of each file in a more detailed format, including information about file modifications, renames, and deletions.</t>
+  </si>
+  <si>
+    <t>git status --branch</t>
+  </si>
+  <si>
+    <t>git status --ahead-behind</t>
+  </si>
+  <si>
+    <t>Displays information about the commits ahead and behind the remote branch.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Displays a short and concise version of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command, showing the status of files in a compact format.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Displays the branch information along with the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> output.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Similar to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git status -s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, but provides machine-readable output, often used for scripting or automation purposes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shows ignored files in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> output, in addition to untracked files.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Similar to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git status -s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, but shows the status of each file in a shorter format.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Similar to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git status -b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, but provides additional branch information.</t>
+    </r>
+  </si>
+  <si>
+    <t>GIT LOG</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>Displays the commit history in reverse chronological order, showing the commit hash, author, date, and message.</t>
+  </si>
+  <si>
+    <t>git log --oneline</t>
+  </si>
+  <si>
+    <t>git log --graph</t>
+  </si>
+  <si>
+    <t>git log --abbrev-commit</t>
+  </si>
+  <si>
+    <t>git log --author=&lt;author&gt;</t>
+  </si>
+  <si>
+    <t>git log --since=&lt;date&gt;</t>
+  </si>
+  <si>
+    <t>Shows commits since the specified date.</t>
+  </si>
+  <si>
+    <t>git log --until=&lt;date&gt;</t>
+  </si>
+  <si>
+    <t>Shows commits until the specified date.</t>
+  </si>
+  <si>
+    <t>git log --grep=&lt;pattern&gt;</t>
+  </si>
+  <si>
+    <t>Filters the commit history to only show commits with commit messages matching the specified pattern.</t>
+  </si>
+  <si>
+    <t>git log --stat</t>
+  </si>
+  <si>
+    <t>git log --pretty=&lt;format&gt;</t>
+  </si>
+  <si>
+    <t>git log --graph --oneline --decorate --all</t>
+  </si>
+  <si>
+    <t>Displays a compact and graph-based representation of the commit history, including all branches and tags.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shows abbreviated commit hashes in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> output.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies a custom output format for the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command.</t>
+    </r>
+  </si>
+  <si>
+    <t>GIT BRANCH</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>Lists all the branches in the repository.</t>
+  </si>
+  <si>
+    <t>git branch &lt;branch-name&gt;</t>
+  </si>
+  <si>
+    <t>Creates a new branch with the specified name.</t>
+  </si>
+  <si>
+    <t>git branch -d &lt;branch-name&gt;</t>
+  </si>
+  <si>
+    <t>Deletes the specified branch. Note that the branch must be fully merged into the current branch for deletion.</t>
+  </si>
+  <si>
+    <t>git branch -D &lt;branch-name&gt;</t>
+  </si>
+  <si>
+    <t>Forces the deletion of the specified branch, even if it contains unmerged changes.</t>
+  </si>
+  <si>
+    <t>git branch -m &lt;branch-name&gt;</t>
+  </si>
+  <si>
+    <t>Renames the current branch to the specified name.</t>
+  </si>
+  <si>
+    <t>git branch -a</t>
+  </si>
+  <si>
+    <t>Lists all the branches in the repository, including remote branches.</t>
+  </si>
+  <si>
+    <t>git branch -r</t>
+  </si>
+  <si>
+    <t>Lists the remote branches in the repository.</t>
+  </si>
+  <si>
+    <t>git branch -vv</t>
+  </si>
+  <si>
+    <t>Displays the tracking branch information along with the local branches.</t>
+  </si>
+  <si>
+    <t>git branch --merged</t>
+  </si>
+  <si>
+    <t>Lists the branches that have been merged into the current branch.</t>
+  </si>
+  <si>
+    <t>git branch --no-merged</t>
+  </si>
+  <si>
+    <t>Lists the branches that have not been merged into the current branch.</t>
+  </si>
+  <si>
+    <t>git branch --contains &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Lists the branches that contain the specified commit.</t>
+  </si>
+  <si>
+    <t>git branch --set-upstream-to=&lt;upstream&gt;</t>
+  </si>
+  <si>
+    <t>Sets the upstream branch for the current branch.</t>
+  </si>
+  <si>
+    <t>git branch --unset-upstream</t>
+  </si>
+  <si>
+    <t>Removes the upstream branch configuration for the current branch.</t>
+  </si>
+  <si>
+    <t>GIT STASH</t>
+  </si>
+  <si>
+    <t>git stash</t>
+  </si>
+  <si>
+    <t>Stashes the changes in the working directory, saving them for later use, and reverts the working directory to the last commit.</t>
+  </si>
+  <si>
+    <t>git stash save &lt;message&gt;</t>
+  </si>
+  <si>
+    <t>Stashes the changes in the working directory with a custom message.</t>
+  </si>
+  <si>
+    <t>git stash list</t>
+  </si>
+  <si>
+    <t>Lists all stashes in the repository.</t>
+  </si>
+  <si>
+    <t>git stash show</t>
+  </si>
+  <si>
+    <t>Displays the changes in the most recent stash.</t>
+  </si>
+  <si>
+    <t>git stash show &lt;stash&gt;</t>
+  </si>
+  <si>
+    <t>Displays the changes in the specified stash.</t>
+  </si>
+  <si>
+    <t>git stash apply</t>
+  </si>
+  <si>
+    <t>Applies the most recent stash to the working directory without removing it from the stash list.</t>
+  </si>
+  <si>
+    <t>git stash apply &lt;stash&gt;</t>
+  </si>
+  <si>
+    <t>Applies the specified stash to the working directory without removing it from the stash list.</t>
+  </si>
+  <si>
+    <t>git stash pop</t>
+  </si>
+  <si>
+    <t>Applies the most recent stash to the working directory and removes it from the stash list.</t>
+  </si>
+  <si>
+    <t>git stash pop &lt;stash&gt;</t>
+  </si>
+  <si>
+    <t>Applies the specified stash to the working directory and removes it from the stash list.</t>
+  </si>
+  <si>
+    <t>git stash drop</t>
+  </si>
+  <si>
+    <t>Removes the most recent stash from the stash list.</t>
+  </si>
+  <si>
+    <t>git stash drop &lt;stash&gt;</t>
+  </si>
+  <si>
+    <t>Removes the specified stash from the stash list.</t>
+  </si>
+  <si>
+    <t>git stash clear</t>
+  </si>
+  <si>
+    <t>Removes all stashes from the stash list.</t>
+  </si>
+  <si>
+    <t>git stash branch &lt;branch-name&gt;</t>
+  </si>
+  <si>
+    <t>Creates a new branch from the most recent stash and applies the stash to the new branch.</t>
+  </si>
+  <si>
+    <t>git stash branch &lt;branch-name&gt; &lt;stash&gt;</t>
+  </si>
+  <si>
+    <t>Creates a new branch from the specified stash and applies the stash to the new branch.</t>
+  </si>
+  <si>
+    <t>GIT DIFF</t>
+  </si>
+  <si>
+    <t>git diff</t>
+  </si>
+  <si>
+    <t>Shows the differences between the working directory and the staging area.</t>
+  </si>
+  <si>
+    <t>git diff &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Shows the differences between the working directory and the specified commit.</t>
+  </si>
+  <si>
+    <t>git diff --staged</t>
+  </si>
+  <si>
+    <t>Shows the differences between the staging area and the last commit.</t>
+  </si>
+  <si>
+    <t>git diff &lt;commit&gt; &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Shows the differences between two specified commits.</t>
+  </si>
+  <si>
+    <t>git diff --cached</t>
+  </si>
+  <si>
+    <t>git diff --name-only</t>
+  </si>
+  <si>
+    <t>Shows only the names of the files that are different, without displaying the actual differences.</t>
+  </si>
+  <si>
+    <t>git diff --color-words</t>
+  </si>
+  <si>
+    <t>Shows the differences at the word level, highlighting the changed words.</t>
+  </si>
+  <si>
+    <t>git diff --color-words &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Shows the word-level differences between the working directory and the specified commit.</t>
+  </si>
+  <si>
+    <t>git diff --color-words --cached</t>
+  </si>
+  <si>
+    <t>Shows the word-level differences between the staging area and the last commit.</t>
+  </si>
+  <si>
+    <t>git diff HEAD</t>
+  </si>
+  <si>
+    <t>Shows the differences between the working directory and the last commit.</t>
+  </si>
+  <si>
+    <t>git diff --stat</t>
+  </si>
+  <si>
+    <t>Shows statistics about the changes, including the number of modified files and the number of lines changed in each file.</t>
+  </si>
+  <si>
+    <t>git diff --shortstat</t>
+  </si>
+  <si>
+    <t>git diff --find-renames</t>
+  </si>
+  <si>
+    <t>Detects renamed files and shows the differences between them.</t>
+  </si>
+  <si>
+    <t>git diff --find-copies</t>
+  </si>
+  <si>
+    <t>Detects copied files and shows the differences between them.</t>
+  </si>
+  <si>
+    <t>git diff --find-copies-harder</t>
+  </si>
+  <si>
+    <t>Detects copied or renamed files with more aggressive algorithms, showing the differences.</t>
+  </si>
+  <si>
+    <t>git diff --histogram</t>
+  </si>
+  <si>
+    <t>Uses a histogram algorithm for better performance in certain cases</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Similar to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git diff --staged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, shows the differences between the staging area and the last commit.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shows a concise version of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git diff --stat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command, providing summary statistics.</t>
+    </r>
+  </si>
+  <si>
+    <t>GIT CHECKOUT</t>
+  </si>
+  <si>
+    <t>git checkout &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Switches to the specified branch.</t>
+  </si>
+  <si>
+    <t>git checkout -b &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Creates and switches to a new branch with the specified name.</t>
+  </si>
+  <si>
+    <t>git checkout &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Checks out the specified commit, detaching the HEAD.</t>
+  </si>
+  <si>
+    <t>git checkout -- &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Discards changes made to a specific file in the working directory, restoring it to the last committed version.</t>
+  </si>
+  <si>
+    <t>git checkout &lt;commit&gt; -- &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Restores a specific file to the version from the specified commit.</t>
+  </si>
+  <si>
+    <t>git checkout -- &lt;directory&gt;</t>
+  </si>
+  <si>
+    <t>Discards changes made to files in a specific directory, restoring them to the last committed versions.</t>
+  </si>
+  <si>
+    <t>git checkout -- .</t>
+  </si>
+  <si>
+    <t>Discards changes made to all files in the current directory, restoring them to the last committed versions.</t>
+  </si>
+  <si>
+    <t>git checkout --ours &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Resolves merge conflicts by keeping the version of the file from the current branch.</t>
+  </si>
+  <si>
+    <t>git checkout --theirs &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Resolves merge conflicts by keeping the version of the file from the branch being merged into.</t>
+  </si>
+  <si>
+    <t>git checkout --patch &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Interactively selects changes from a file to apply, allowing granular control over the checkout process.</t>
+  </si>
+  <si>
+    <t>git checkout --detach</t>
+  </si>
+  <si>
+    <t>Detaches the HEAD from the current branch, allowing you to explore the commit history without switching branches.</t>
+  </si>
+  <si>
+    <t>git checkout -- &lt;path&gt;</t>
+  </si>
+  <si>
+    <t>Restores a specific file or directory to the last committed version.</t>
+  </si>
+  <si>
+    <t>Discards all changes made in the working directory, restoring all files to the last committed versions.</t>
+  </si>
+  <si>
+    <t>git checkout -</t>
+  </si>
+  <si>
+    <t>Switches to the previous branch.</t>
+  </si>
+  <si>
+    <t>GIT COMMANDS</t>
+  </si>
+  <si>
+    <t>Initializes a new Git repository.</t>
+  </si>
+  <si>
+    <t>git clone &lt;repository&gt;</t>
+  </si>
+  <si>
+    <t>Creates a local copy of a remote repository.</t>
+  </si>
+  <si>
+    <t>Adds a file to the staging area.</t>
+  </si>
+  <si>
+    <t>git commit -m &lt;message&gt;</t>
+  </si>
+  <si>
+    <t>Commits the staged changes with a commit message.</t>
+  </si>
+  <si>
+    <t>Displays the current status of the repository.</t>
+  </si>
+  <si>
+    <t>git merge &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Merges the specified branch into the current branch.</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>Fetches and merges changes from a remote repository into the current branch.</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>Pushes local changes to a remote repository.</t>
+  </si>
+  <si>
+    <t>git remote add &lt;name&gt; &lt;url&gt;</t>
+  </si>
+  <si>
+    <t>Adds a remote repository with the specified name and URL.</t>
+  </si>
+  <si>
+    <t>git remote -v</t>
+  </si>
+  <si>
+    <t>Lists the configured remote repositories.</t>
+  </si>
+  <si>
+    <t>git fetch</t>
+  </si>
+  <si>
+    <t>Fetches changes from a remote repository without merging.</t>
+  </si>
+  <si>
+    <t>git reset &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Unstages a file, removing it from the staging area.</t>
+  </si>
+  <si>
+    <t>git reset --hard</t>
+  </si>
+  <si>
+    <t>Discards all changes and reverts to the last commit.</t>
+  </si>
+  <si>
+    <t>Displays the commit history.</t>
+  </si>
+  <si>
+    <t>git tag &lt;tag-name&gt;</t>
+  </si>
+  <si>
+    <t>Creates a new tag at the current commit.</t>
+  </si>
+  <si>
+    <t>git revert &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Creates a new commit that undoes the changes made in the specified commit.</t>
+  </si>
+  <si>
+    <t>git rm &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Removes a file from the working directory and the repository.</t>
+  </si>
+  <si>
+    <t>git mv &lt;old-file&gt; &lt;new-file&gt;</t>
+  </si>
+  <si>
+    <t>Renames or moves a file and stages the changes.</t>
+  </si>
+  <si>
+    <t>git show &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Displays detailed information about a commit.</t>
+  </si>
+  <si>
+    <t>git remote remove &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>Removes the remote repository with the specified name.</t>
+  </si>
+  <si>
+    <t>git remote set-url &lt;name&gt; &lt;new-url&gt;</t>
+  </si>
+  <si>
+    <t>Changes the URL of the remote repository with the specified name.</t>
+  </si>
+  <si>
+    <t>git clean -n</t>
+  </si>
+  <si>
+    <t>git clean -f</t>
+  </si>
+  <si>
+    <t>Removes untracked files from the working directory.</t>
+  </si>
+  <si>
+    <t>Stashes the changes in the working directory for later use.</t>
+  </si>
+  <si>
+    <t>Applies the most recent stash and removes it from the stash list.</t>
+  </si>
+  <si>
+    <t>Applies the specified stash to the working directory.</t>
+  </si>
+  <si>
+    <t>git config --global user.name &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>Sets the global username for Git.</t>
+  </si>
+  <si>
+    <t>git config --global user.email &lt;email&gt;</t>
+  </si>
+  <si>
+    <t>Sets the global email address for Git.</t>
+  </si>
+  <si>
+    <t>git help</t>
+  </si>
+  <si>
+    <t>Displays the help documentation for Git commands.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shows a list of untracked files that would be removed by the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git clean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command.</t>
+    </r>
+  </si>
+  <si>
+    <t>GIT MERGE</t>
+  </si>
+  <si>
+    <t>git merge --abort</t>
+  </si>
+  <si>
+    <t>Aborts the current merge operation, restoring the state before the merge.</t>
+  </si>
+  <si>
+    <t>git merge --continue</t>
+  </si>
+  <si>
+    <t>Continues the merge after resolving conflicts.</t>
+  </si>
+  <si>
+    <t>git merge --strategy=&lt;strategy&gt; &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>git merge --squash &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Merges the specified branch but squashes all the commits into a single commit.</t>
+  </si>
+  <si>
+    <t>git merge --no-commit &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Performs the merge but does not create a new commit. The changes are staged and left for the user to commit manually.</t>
+  </si>
+  <si>
+    <t>git merge --edit &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Opens the default text editor to edit the merge commit message before committing the merge.</t>
+  </si>
+  <si>
+    <t>git merge-base &lt;commit&gt; &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Finds the best common ancestor(s) between the two specified commits.</t>
+  </si>
+  <si>
+    <t>git merge-tool</t>
+  </si>
+  <si>
+    <t>Opens the default merge tool to help resolve merge conflicts.</t>
+  </si>
+  <si>
+    <t>git merge --ours &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>git merge --theirs &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>git merge --strategy-option=&lt;option&gt;</t>
+  </si>
+  <si>
+    <t>Provides additional options or arguments for the chosen merge strategy.</t>
+  </si>
+  <si>
+    <t>git merge --summary</t>
+  </si>
+  <si>
+    <t>Provides a summary of the merge operation, including the commit message, changes, and conflicts.</t>
+  </si>
+  <si>
+    <t>git merge --stat</t>
+  </si>
+  <si>
+    <t>Shows statistics about the changes introduced by the merge, including the number of files changed and lines inserted/deleted.</t>
+  </si>
+  <si>
+    <t>git merge --no-ff &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Forces a new merge commit even if the merge is a fast-forward.</t>
+  </si>
+  <si>
+    <t>git merge --ff-only &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Performs a fast-forward merge only if it is possible. If not, it aborts the merge.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Merges the specified branch using the specified merge strategy. Common strategies are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>recursive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>GIT PULL</t>
+  </si>
+  <si>
+    <t>Fetches changes from the remote repository and merges them into the current branch.</t>
+  </si>
+  <si>
+    <t>git pull origin &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Fetches changes from the remote repository (typically named "origin") and merges them into the specified branch.</t>
+  </si>
+  <si>
+    <t>git pull --rebase</t>
+  </si>
+  <si>
+    <t>Fetches changes from the remote repository and rebases the current branch on top of the fetched changes.</t>
+  </si>
+  <si>
+    <t>git pull --ff-only</t>
+  </si>
+  <si>
+    <t>Fetches changes from the remote repository and performs a fast-forward merge if possible.</t>
+  </si>
+  <si>
+    <t>git pull --no-commit</t>
+  </si>
+  <si>
+    <t>Fetches changes from the remote repository but does not create a new commit. The changes are staged for manual commit.</t>
+  </si>
+  <si>
+    <t>git pull --no-rebase</t>
+  </si>
+  <si>
+    <t>Fetches changes from the remote repository and merges them without rebasing the current branch.</t>
+  </si>
+  <si>
+    <t>git pull --no-verify</t>
+  </si>
+  <si>
+    <t>Fetches changes from the remote repository and skips the pre-merge hook.</t>
+  </si>
+  <si>
+    <t>git pull --recurse-submodules</t>
+  </si>
+  <si>
+    <t>Fetches changes from the remote repository, including updates to submodules, and merges them into the current branch.</t>
+  </si>
+  <si>
+    <t>git pull --tags</t>
+  </si>
+  <si>
+    <t>Fetches changes from the remote repository, including tags, and merges them into the current branch.</t>
+  </si>
+  <si>
+    <t>git pull --verbose</t>
+  </si>
+  <si>
+    <t>Fetches changes from the remote repository and provides more detailed output during the merge process.</t>
+  </si>
+  <si>
+    <t>git pull --strategy=&lt;strategy&gt;</t>
+  </si>
+  <si>
+    <t>Fetches changes from the remote repository and merges them using the specified merge strategy.</t>
+  </si>
+  <si>
+    <t>git pull --allow-unrelated-histories</t>
+  </si>
+  <si>
+    <t>Allows unrelated histories to be merged when fetching changes from the remote repository.</t>
+  </si>
+  <si>
+    <t>git pull --update-head-ok</t>
+  </si>
+  <si>
+    <t>Allows the current branch's HEAD to be updated during the merge operation.</t>
+  </si>
+  <si>
+    <t>git pull --ff</t>
+  </si>
+  <si>
+    <t>Fetches changes from the remote repository and performs a fast-forward merge.</t>
+  </si>
+  <si>
+    <t>git pull --no-tags</t>
+  </si>
+  <si>
+    <t>Fetches changes from the remote repository but excludes any tags from being merged.</t>
+  </si>
+  <si>
+    <t>GIT PUSH</t>
+  </si>
+  <si>
+    <t>Pushes the local changes to the remote repository.</t>
+  </si>
+  <si>
+    <t>git push &lt;remote&gt;</t>
+  </si>
+  <si>
+    <t>Pushes the local branch to the specified remote repository.</t>
+  </si>
+  <si>
+    <t>git push &lt;remote&gt; &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>git push -u &lt;remote&gt; &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Sets the upstream branch for the local branch and pushes it to the specified remote repository.</t>
+  </si>
+  <si>
+    <t>git push --force</t>
+  </si>
+  <si>
+    <t>Forces the push, overwriting the remote branch with the local branch.</t>
+  </si>
+  <si>
+    <t>git push --tags</t>
+  </si>
+  <si>
+    <t>Pushes all tags to the remote repository.</t>
+  </si>
+  <si>
+    <t>git push &lt;remote&gt; --delete &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Deletes the specified branch from the remote repository.</t>
+  </si>
+  <si>
+    <t>git push &lt;remote&gt; --all</t>
+  </si>
+  <si>
+    <t>Pushes all local branches to the remote repository.</t>
+  </si>
+  <si>
+    <t>git push &lt;remote&gt; --mirror</t>
+  </si>
+  <si>
+    <t>Pushes all local branches and tags, and deletes remote branches that no longer exist locally.</t>
+  </si>
+  <si>
+    <t>git push &lt;remote&gt; --follow-tags</t>
+  </si>
+  <si>
+    <t>Pushes the current branch along with annotated tags to the remote repository.</t>
+  </si>
+  <si>
+    <t>git push &lt;remote&gt; --set-upstream &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>git push --dry-run</t>
+  </si>
+  <si>
+    <t>Simulates the push operation without actually pushing any changes.</t>
+  </si>
+  <si>
+    <t>git push --no-verify</t>
+  </si>
+  <si>
+    <t>Skips the pre-push hook and pushes the changes to the remote repository.</t>
+  </si>
+  <si>
+    <t>git push --force-with-lease</t>
+  </si>
+  <si>
+    <t>Forces the push, but checks if the remote branch has been updated by someone else before overwriting it.</t>
+  </si>
+  <si>
+    <t>git push --receive-pack=&lt;path&gt;</t>
+  </si>
+  <si>
+    <t>Specifies the path to the receive-pack program on the remote repository.</t>
+  </si>
+  <si>
+    <t>git push --atomic</t>
+  </si>
+  <si>
+    <t>Uses an atomic push, ensuring that either all the refs are updated or none of them are.</t>
+  </si>
+  <si>
+    <t>git push --quiet</t>
+  </si>
+  <si>
+    <t>Performs the push operation silently, without displaying any output.</t>
+  </si>
+  <si>
+    <t>git push --set-upstream-to=&lt;remote&gt;/&lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Sets the upstream branch for the current branch and pushes it to the specified remote repository.</t>
+  </si>
+  <si>
+    <t>GIT FETCH</t>
+  </si>
+  <si>
+    <t>Fetches the latest changes from the remote repository, including all branches and tags, but does not merge them.</t>
+  </si>
+  <si>
+    <t>git fetch &lt;remote&gt;</t>
+  </si>
+  <si>
+    <t>Fetches the latest changes from the specified remote repository.</t>
+  </si>
+  <si>
+    <t>git fetch --prune</t>
+  </si>
+  <si>
+    <t>Fetches the latest changes and removes any remote-tracking branches that no longer exist on the remote.</t>
+  </si>
+  <si>
+    <t>git fetch --all</t>
+  </si>
+  <si>
+    <t>Fetches the latest changes from all remote repositories.</t>
+  </si>
+  <si>
+    <t>git fetch --tags</t>
+  </si>
+  <si>
+    <t>Fetches the latest tags from the remote repository.</t>
+  </si>
+  <si>
+    <t>git fetch --depth=&lt;depth&gt;</t>
+  </si>
+  <si>
+    <t>Fetches the latest changes with a specified depth, limiting the number of commits to fetch.</t>
+  </si>
+  <si>
+    <t>git fetch --unshallow</t>
+  </si>
+  <si>
+    <t>Converts a shallow clone into a complete clone by fetching all missing commits.</t>
+  </si>
+  <si>
+    <t>git fetch --recurse-submodules</t>
+  </si>
+  <si>
+    <t>Fetches the latest changes from the remote repository, including updates to submodules.</t>
+  </si>
+  <si>
+    <t>git fetch --no-tags</t>
+  </si>
+  <si>
+    <t>Fetches the latest changes from the remote repository but excludes any tags.</t>
+  </si>
+  <si>
+    <t>git fetch --force</t>
+  </si>
+  <si>
+    <t>Fetches the latest changes from the remote repository, overwriting the local branches with the fetched ones.</t>
+  </si>
+  <si>
+    <t>git fetch --prune-tags</t>
+  </si>
+  <si>
+    <t>Fetches the latest tags from the remote repository and prunes any local tags that no longer exist remotely.</t>
+  </si>
+  <si>
+    <t>git fetch --multiple &lt;remote1&gt; &lt;remote2&gt;</t>
+  </si>
+  <si>
+    <t>Fetches the latest changes from multiple remote repositories.</t>
+  </si>
+  <si>
+    <t>git fetch --quiet</t>
+  </si>
+  <si>
+    <t>Performs the fetch operation silently, without displaying any output.</t>
+  </si>
+  <si>
+    <t>git fetch --verbose</t>
+  </si>
+  <si>
+    <t>Provides more detailed output during the fetch process.</t>
+  </si>
+  <si>
+    <t>GIT REMOTE</t>
+  </si>
+  <si>
+    <t>git remote</t>
+  </si>
+  <si>
+    <t>Lists the remote repositories associated with the current repository.</t>
+  </si>
+  <si>
+    <t>Adds a new remote repository with the specified name and URL.</t>
+  </si>
+  <si>
+    <t>Removes the specified remote repository from the list of remotes.</t>
+  </si>
+  <si>
+    <t>git remote rename &lt;old-name&gt; &lt;new-name&gt;</t>
+  </si>
+  <si>
+    <t>Renames the specified remote repository to a new name.</t>
+  </si>
+  <si>
+    <t>Changes the URL of the specified remote repository.</t>
+  </si>
+  <si>
+    <t>git remote show &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>Displays information about the specified remote repository, such as the URL and branches.</t>
+  </si>
+  <si>
+    <t>Lists the remote repositories and displays the fetch and push URLs.</t>
+  </si>
+  <si>
+    <t>git remote prune &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>Removes any remote-tracking branches that no longer exist on the remote repository.</t>
+  </si>
+  <si>
+    <t>git remote get-url &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>Retrieves the URL of the specified remote repository.</t>
+  </si>
+  <si>
+    <t>git remote set-url --add &lt;name&gt; &lt;url&gt;</t>
+  </si>
+  <si>
+    <t>Adds an additional URL for the specified remote repository.</t>
+  </si>
+  <si>
+    <t>git remote set-url --delete &lt;name&gt; &lt;url&gt;</t>
+  </si>
+  <si>
+    <t>Removes the specified URL from the remote repository.</t>
+  </si>
+  <si>
+    <t>git remote set-branches &lt;name&gt; &lt;branches&gt;</t>
+  </si>
+  <si>
+    <t>Sets the branches to be fetched from the specified remote repository.</t>
+  </si>
+  <si>
+    <t>git remote set-head &lt;name&gt; &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Sets the default branch for the specified remote repository.</t>
+  </si>
+  <si>
+    <t>git remote update</t>
+  </si>
+  <si>
+    <t>Updates the remote-tracking branches for all remote repositories.</t>
+  </si>
+  <si>
+    <t>git remote prune</t>
+  </si>
+  <si>
+    <t>Removes any remote-tracking branches that no longer exist on any of the remote repositories.</t>
+  </si>
+  <si>
+    <t>git remote get-url --all &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>Retrieves all URLs associated with the specified remote repository.</t>
+  </si>
+  <si>
+    <t>git remote set-url --push &lt;name&gt; &lt;url&gt;</t>
+  </si>
+  <si>
+    <t>Changes the push URL of the specified remote repository.</t>
+  </si>
+  <si>
+    <t>git remote set-url --push --add &lt;name&gt; &lt;url&gt;</t>
+  </si>
+  <si>
+    <t>Adds an additional push URL for the specified remote repository.</t>
+  </si>
+  <si>
+    <t>git remote set-url --push --delete &lt;name&gt; &lt;url&gt;</t>
+  </si>
+  <si>
+    <t>Removes the specified push URL from the remote repository.</t>
+  </si>
+  <si>
+    <t>git log &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Displays the commit history of the specified branch.</t>
+  </si>
+  <si>
+    <t>Displays a condensed log format, showing each commit on a single line with abbreviated commit hashes and commit messages.</t>
+  </si>
+  <si>
+    <t>Displays a graphical representation of the commit history, illustrating the relationships between commits and branches.</t>
+  </si>
+  <si>
+    <t>Displays the commit history along with statistics about the files modified in each commit, such as the number of insertions and deletions.</t>
+  </si>
+  <si>
+    <t>Filters the commit history based on the specified author.</t>
+  </si>
+  <si>
+    <t>git log --after=&lt;date&gt;</t>
+  </si>
+  <si>
+    <t>Filters the commit history to include only commits after the specified date.</t>
+  </si>
+  <si>
+    <t>git log --before=&lt;date&gt;</t>
+  </si>
+  <si>
+    <t>Filters the commit history to include only commits before the specified date.</t>
+  </si>
+  <si>
+    <t>git log --since=&lt;time&gt;</t>
+  </si>
+  <si>
+    <t>Filters the commit history to include only commits more recent than the specified time.</t>
+  </si>
+  <si>
+    <t>git log --until=&lt;time&gt;</t>
+  </si>
+  <si>
+    <t>Filters the commit history to include only commits older than the specified time.</t>
+  </si>
+  <si>
+    <t>git log --branches=&lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Displays the commit history of the specified branch and its ancestors.</t>
+  </si>
+  <si>
+    <t>git log --tags=&lt;tag&gt;</t>
+  </si>
+  <si>
+    <t>Displays the commit history of the specified tag and its ancestors.</t>
+  </si>
+  <si>
+    <t>git log --remotes=&lt;remote&gt;</t>
+  </si>
+  <si>
+    <t>Displays the commit history of the specified remote repository and its branches.</t>
+  </si>
+  <si>
+    <t>git log --all</t>
+  </si>
+  <si>
+    <t>Displays the commit history of all branches, including remote branches.</t>
+  </si>
+  <si>
+    <t>git log --follow &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Displays the commit history of a specific file, including any file renaming or moving.</t>
+  </si>
+  <si>
+    <t>git log -- &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Displays the commit history that affected the specified file.</t>
+  </si>
+  <si>
+    <t>git log --no-merges</t>
+  </si>
+  <si>
+    <t>Displays the commit history excluding any merge commits.</t>
+  </si>
+  <si>
+    <t>git log --cherry-pick &lt;upstream&gt;...&lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Displays the commits that are in the current branch but not in the upstream branch, useful for cherry-picking changes.</t>
+  </si>
+  <si>
+    <t>GIT rm</t>
+  </si>
+  <si>
+    <t>Removes the specified file from the working directory and stages the deletion for the next commit.</t>
+  </si>
+  <si>
+    <t>git rm --cached &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Stops tracking the specified file, but keeps it in the working directory. The file is staged for deletion in the index.</t>
+  </si>
+  <si>
+    <t>git rm -r &lt;directory&gt;</t>
+  </si>
+  <si>
+    <t>Recursively removes the specified directory and its contents from the working directory and stages the deletion.</t>
+  </si>
+  <si>
+    <t>git rm --ignore-unmatch &lt;pattern&gt;</t>
+  </si>
+  <si>
+    <t>Removes files from the working directory and the index that match the specified pattern.</t>
+  </si>
+  <si>
+    <t>git rm --dry-run &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>git rm --force &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Forces the removal of the specified file, even if it has local modifications.</t>
+  </si>
+  <si>
+    <t>git rm --cached --ignore-unmatch &lt;pattern&gt;</t>
+  </si>
+  <si>
+    <t>Stops tracking files that match the specified pattern, but keeps them in the working directory. The files are staged for deletion in the index.</t>
+  </si>
+  <si>
+    <t>git rm --quiet &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>git rm --help</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Simulates the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git rm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> operation, displaying the files that would be removed without actually removing them.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Performs the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git rm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> operation silently, without displaying any output.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Displays the help page for the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git rm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command.</t>
+    </r>
+  </si>
+  <si>
+    <t>GIT CLEAN</t>
+  </si>
+  <si>
+    <t>git clean</t>
+  </si>
+  <si>
+    <t>Shows a preview of the untracked files that would be removed without actually removing them.</t>
+  </si>
+  <si>
+    <t>Removes untracked files from the working directory forcefully, without prompting for confirmation.</t>
+  </si>
+  <si>
+    <t>git clean -df</t>
+  </si>
+  <si>
+    <t>Removes untracked files and directories from the working directory forcefully, including ignored files.</t>
+  </si>
+  <si>
+    <t>git clean -x</t>
+  </si>
+  <si>
+    <t>Removes untracked files, including those ignored by Git, from the working directory.</t>
+  </si>
+  <si>
+    <t>git clean -d</t>
+  </si>
+  <si>
+    <t>Removes untracked directories from the working directory.</t>
+  </si>
+  <si>
+    <t>git clean -i</t>
+  </si>
+  <si>
+    <t>Interactively selects which untracked files and directories to remove.</t>
+  </si>
+  <si>
+    <t>git clean -e &lt;pattern&gt;</t>
+  </si>
+  <si>
+    <t>Excludes files matching the specified pattern from being cleaned.</t>
+  </si>
+  <si>
+    <t>git clean -X</t>
+  </si>
+  <si>
+    <t>Removes only files ignored by Git from the working directory, but keeps tracked files intact.</t>
+  </si>
+  <si>
+    <t>git clean -q</t>
+  </si>
+  <si>
+    <t>Performs the clean operation silently, without displaying any output.</t>
+  </si>
+  <si>
+    <t>git clean --dry-run</t>
+  </si>
+  <si>
+    <t>git clean --force</t>
+  </si>
+  <si>
+    <t>git clean --interactive</t>
+  </si>
+  <si>
+    <t>git clean --exclude=&lt;pattern&gt;</t>
+  </si>
+  <si>
+    <t>git clean --directory</t>
+  </si>
+  <si>
+    <t>git clean --ignored</t>
+  </si>
+  <si>
+    <t>git clean --quiet</t>
+  </si>
+  <si>
+    <t>git clean --help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIT ROLLBACK </t>
+  </si>
+  <si>
+    <t>Command/Technique</t>
+  </si>
+  <si>
+    <t>Creates a new commit that undoes the changes made in the specified commit. The commit history remains intact, and a new commit is created to revert the changes.</t>
+  </si>
+  <si>
+    <t>git reset --hard &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Discards all changes and moves the current branch pointer to the specified commit. This operation is destructive and cannot be undone. Use with caution.</t>
+  </si>
+  <si>
+    <t>git reset --soft &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Moves the current branch pointer to the specified commit without discarding any changes. The changes remain in the staging area, allowing you to modify or commit them again.</t>
+  </si>
+  <si>
+    <t>git reset --mixed &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Moves the current branch pointer to the specified commit and resets the staging area to match the commit. Changes in the working directory are preserved but uncommitted.</t>
+  </si>
+  <si>
+    <t>git reset --merge &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Resets the current branch to the specified commit and updates the staging area and working directory to reflect the commit. This is useful for undoing a failed merge or resolving conflicts.</t>
+  </si>
+  <si>
+    <t>Updates the working directory to match the specified commit. The current branch remains unchanged. This is useful for inspecting past commits without making any changes.</t>
+  </si>
+  <si>
+    <t>Switches the current branch to the specified branch, discarding any changes in the working directory that are not committed. This is useful for switching to a different branch.</t>
+  </si>
+  <si>
+    <t>git cherry-pick &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Applies the changes from the specified commit onto the current branch. This is useful for selectively applying specific commits from other branches.</t>
+  </si>
+  <si>
+    <t>git reflog</t>
+  </si>
+  <si>
+    <t>Displays the reference log, which keeps track of all local branch and HEAD movements, including commit and rollback operations.</t>
+  </si>
+  <si>
+    <t>git revert --no-commit &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Reverts the changes made in the specified commit, but does not create a new commit. The changes are staged, allowing you to modify or commit them as needed.</t>
+  </si>
+  <si>
+    <t>git revert --abort</t>
+  </si>
+  <si>
+    <t>GIT REVERT</t>
+  </si>
+  <si>
+    <t>Creates a new commit that undoes the changes made in the specified commit. The commit history remains intact.</t>
+  </si>
+  <si>
+    <t>Reverts the changes made in the specified commit, but does not create a new commit. The changes are staged for modification.</t>
+  </si>
+  <si>
+    <t>git revert --no-edit &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Reverts the changes made in the specified commit and creates a new commit without prompting for an edit message.</t>
+  </si>
+  <si>
+    <t>git revert --edit &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Reverts the changes made in the specified commit and opens the default text editor to modify the commit message.</t>
+  </si>
+  <si>
+    <t>git revert --signoff &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Reverts the changes made in the specified commit and adds a "Signed-off-by" line to the commit message.</t>
+  </si>
+  <si>
+    <t>git revert --mainline &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Reverts the changes made in the specified merge commit and selects the mainline changes.</t>
+  </si>
+  <si>
+    <t>git revert --skip &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Skips reverting the changes made in the specified commit and proceeds to the next commit to revert.</t>
+  </si>
+  <si>
+    <t>GIT RESET</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cancels an ongoing revert operation and restores the repository to its state before the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git revert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command was executed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cancels an ongoing revert operation, restoring the repository to its state before the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git revert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command was executed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rolls back the last </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> commits, discarding all changes made in those commits. This is a shortcut to revert multiple commits.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shows a preview of the untracked files that would be removed without actually removing them. Alias: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git clean -n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Removes untracked files from the working directory forcefully, without prompting for confirmation. Alias: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git clean -f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interactively selects which untracked files and directories to remove. Alias: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git clean -i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Excludes files matching the specified pattern from being cleaned. Alias: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git clean -e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Removes untracked directories from the working directory. Alias: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git clean -d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Removes only files ignored by Git from the working directory, but keeps tracked files intact. Alias: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git clean -X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Performs the clean operation silently, without displaying any output. Alias: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git clean -q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Displays the help page for the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git clean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command.</t>
+    </r>
+  </si>
+  <si>
+    <t>git reset &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Moves the current branch pointer to the specified commit, discarding any changes after that commit. The changes are not lost and can be accessed through the reflog.</t>
+  </si>
+  <si>
+    <t>Moves the current branch pointer to the specified commit, preserving the changes in the staging area and working directory. Changes can be modified or committed again.</t>
+  </si>
+  <si>
+    <t>Moves the current branch pointer to the specified commit, resetting the staging area to match the commit. Changes in the working directory are preserved but uncommitted.</t>
+  </si>
+  <si>
+    <t>Moves the current branch pointer to the specified commit, resetting both the staging area and the working directory to match the commit. Changes in the working directory are discarded.</t>
+  </si>
+  <si>
+    <t>Resets the current branch to the specified commit and updates the staging area and working directory to reflect the commit. Useful for undoing a failed merge or resolving conflicts.</t>
+  </si>
+  <si>
+    <t>git reset --keep &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Resets the current branch to the specified commit, preserving changes in the working directory that do not conflict with the reset. Discards changes that conflict with the reset.</t>
+  </si>
+  <si>
+    <t>git reset HEAD &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Unstages the specified file, removing it from the staging area but preserving its changes in the working directory.</t>
+  </si>
+  <si>
+    <t>git reset --patch &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Interactively selects hunks from the specified commit and applies them to the working directory, staging the changes for commit.</t>
+  </si>
+  <si>
+    <r>
+      <t>git reset --hard HEAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git reset --hard</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git reset --hard HEAD~&lt;n&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git reset --hard HEAD (or)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sets the name to be associated with commits on the current user's global Git configuration.</t>
+  </si>
+  <si>
+    <t>Sets the email address to be associated with commits on the current user's global Git configuration.</t>
+  </si>
+  <si>
+    <t>git config --global core.editor &lt;editor&gt;</t>
+  </si>
+  <si>
+    <t>Sets the default text editor to be used for commit messages and other Git operations.</t>
+  </si>
+  <si>
+    <t>git config --global alias.&lt;alias&gt; &lt;command&gt;</t>
+  </si>
+  <si>
+    <t>Creates a shortcut or alias for a Git command.</t>
+  </si>
+  <si>
+    <t>git config --global color.ui &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Enables or disables the use of colors in Git's output.</t>
+  </si>
+  <si>
+    <t>git config --global init.defaultBranch &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>git config --global merge.tool &lt;tool&gt;</t>
+  </si>
+  <si>
+    <t>Sets the default merge tool to be used for resolving merge conflicts.</t>
+  </si>
+  <si>
+    <t>git config --global diff.tool &lt;tool&gt;</t>
+  </si>
+  <si>
+    <t>Sets the default diff tool to be used for displaying differences between files.</t>
+  </si>
+  <si>
+    <t>git config --global core.autocrlf &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Configures line ending conversions for files between different operating systems.</t>
+  </si>
+  <si>
+    <t>git config --global core.ignorecase &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Configures whether Git should be case-sensitive or case-insensitive when matching filenames.</t>
+  </si>
+  <si>
+    <t>git config --global core.excludesfile &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Specifies a file that contains patterns to be ignored by Git.</t>
+  </si>
+  <si>
+    <t>git config --global alias.&lt;alias&gt; "!&lt;shell-command&gt;"</t>
+  </si>
+  <si>
+    <t>Creates a Git alias that executes a shell command.</t>
+  </si>
+  <si>
+    <t>git config --global credential.helper &lt;helper&gt;</t>
+  </si>
+  <si>
+    <t>Configures a credential helper to cache or store Git credentials for authentication.</t>
+  </si>
+  <si>
+    <t>git config --global http.proxy &lt;proxy-url&gt;</t>
+  </si>
+  <si>
+    <t>Sets the proxy URL to be used for Git operations over HTTP or HTTPS.</t>
+  </si>
+  <si>
+    <t>git config --global http.sslVerify &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Configures whether Git should verify SSL certificates when making HTTP or HTTPS connections.</t>
+  </si>
+  <si>
+    <t>git config --global core.safecrlf &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Configures Git's behavior regarding line ending conversions, preventing potential data loss.</t>
+  </si>
+  <si>
+    <t>git config --global core.filemode &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Configures whether Git should consider the executable permission of files in the working directory.</t>
+  </si>
+  <si>
+    <t>git config --global core.pager &lt;command&gt;</t>
+  </si>
+  <si>
+    <t>Sets the pager or viewer to be used for displaying Git's output in a paginated manner.</t>
+  </si>
+  <si>
+    <t>git config --global commit.gpgSign &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Configures whether Git should automatically sign commits using GPG.</t>
+  </si>
+  <si>
+    <t>git config --global tag.sort &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Configures the sorting order of tags when listing them.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sets the name of the default branch to be created when running </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>GIT CONFIG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2921,6 +5623,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2982,7 +5704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3081,8 +5803,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3094,8 +5825,9 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -3134,8 +5866,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="11"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Accent3" xfId="10" builtinId="37"/>
@@ -3143,6 +5891,7 @@
     <cellStyle name="Calculation" xfId="8" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="9" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="11" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="6" builtinId="17"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -3438,9 +6187,3022 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B419"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.33203125" customWidth="1"/>
+    <col min="2" max="2" width="153.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="20"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>946</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>857</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>962</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>983</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>926</v>
+      </c>
+      <c r="B47" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>928</v>
+      </c>
+      <c r="B48" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>930</v>
+      </c>
+      <c r="B49" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>932</v>
+      </c>
+      <c r="B50" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>934</v>
+      </c>
+      <c r="B51" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>936</v>
+      </c>
+      <c r="B52" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>938</v>
+      </c>
+      <c r="B53" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>940</v>
+      </c>
+      <c r="B54" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>942</v>
+      </c>
+      <c r="B55" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>944</v>
+      </c>
+      <c r="B56" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>946</v>
+      </c>
+      <c r="B60" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>948</v>
+      </c>
+      <c r="B61" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>950</v>
+      </c>
+      <c r="B62" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>952</v>
+      </c>
+      <c r="B63" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>954</v>
+      </c>
+      <c r="B64" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>955</v>
+      </c>
+      <c r="B65" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>957</v>
+      </c>
+      <c r="B66" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>857</v>
+      </c>
+      <c r="B94" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>859</v>
+      </c>
+      <c r="B95" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>875</v>
+      </c>
+      <c r="B96" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>876</v>
+      </c>
+      <c r="B97" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>877</v>
+      </c>
+      <c r="B98" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>878</v>
+      </c>
+      <c r="B99" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>879</v>
+      </c>
+      <c r="B100" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>880</v>
+      </c>
+      <c r="B101" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>867</v>
+      </c>
+      <c r="B102" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>869</v>
+      </c>
+      <c r="B103" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>871</v>
+      </c>
+      <c r="B104" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>873</v>
+      </c>
+      <c r="B105" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>883</v>
+      </c>
+      <c r="B109" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>885</v>
+      </c>
+      <c r="B110" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>887</v>
+      </c>
+      <c r="B111" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>889</v>
+      </c>
+      <c r="B112" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>891</v>
+      </c>
+      <c r="B113" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>893</v>
+      </c>
+      <c r="B114" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>895</v>
+      </c>
+      <c r="B115" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>897</v>
+      </c>
+      <c r="B116" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>899</v>
+      </c>
+      <c r="B117" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>901</v>
+      </c>
+      <c r="B118" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>903</v>
+      </c>
+      <c r="B119" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>905</v>
+      </c>
+      <c r="B120" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>907</v>
+      </c>
+      <c r="B121" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>909</v>
+      </c>
+      <c r="B122" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>911</v>
+      </c>
+      <c r="B123" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>913</v>
+      </c>
+      <c r="B124" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>915</v>
+      </c>
+      <c r="B125" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>917</v>
+      </c>
+      <c r="B126" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>919</v>
+      </c>
+      <c r="B127" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>921</v>
+      </c>
+      <c r="B128" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>923</v>
+      </c>
+      <c r="B129" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>962</v>
+      </c>
+      <c r="B134" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>964</v>
+      </c>
+      <c r="B135" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>965</v>
+      </c>
+      <c r="B136" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>966</v>
+      </c>
+      <c r="B137" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>967</v>
+      </c>
+      <c r="B138" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>968</v>
+      </c>
+      <c r="B139" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>970</v>
+      </c>
+      <c r="B140" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>971</v>
+      </c>
+      <c r="B141" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>973</v>
+      </c>
+      <c r="B142" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>974</v>
+      </c>
+      <c r="B143" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B147" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>983</v>
+      </c>
+      <c r="B148" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>985</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>986</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>987</v>
+      </c>
+      <c r="B151" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>988</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>989</v>
+      </c>
+      <c r="B153" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>991</v>
+      </c>
+      <c r="B155" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>993</v>
+      </c>
+      <c r="B156" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>995</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>996</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>997</v>
+      </c>
+      <c r="B162" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B191" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B211" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="3" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B229" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B249" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B267" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="3" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B286" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B308" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="3" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B326" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="3" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B349" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="23"/>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="23"/>
+    </row>
+    <row r="361" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="3" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B362" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="25" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B383" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="25" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B394" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="3" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="21" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B406" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A418" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A419" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
@@ -4230,7 +9992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B289"/>
   <sheetViews>
@@ -6333,7 +12095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B162"/>
   <sheetViews>

--- a/DevOps_Cheatsheet.xlsx
+++ b/DevOps_Cheatsheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="1498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1533">
   <si>
     <t>CREATING OBJECTS</t>
   </si>
@@ -5513,6 +5513,347 @@
   </si>
   <si>
     <t>GIT CONFIG</t>
+  </si>
+  <si>
+    <t>GIT REBASE</t>
+  </si>
+  <si>
+    <t>git rebase &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Applies commits from the current branch on top of the specified branch, integrating the changes from both branches.</t>
+  </si>
+  <si>
+    <t>git rebase --continue</t>
+  </si>
+  <si>
+    <t>Continues the rebase operation after resolving conflicts in the current commit.</t>
+  </si>
+  <si>
+    <t>git rebase --skip</t>
+  </si>
+  <si>
+    <t>Skips the current commit during a rebase operation.</t>
+  </si>
+  <si>
+    <t>git rebase --abort</t>
+  </si>
+  <si>
+    <t>Aborts the ongoing rebase operation, restoring the branch to its state before the rebase started.</t>
+  </si>
+  <si>
+    <t>git rebase -i &lt;commit&gt;</t>
+  </si>
+  <si>
+    <t>Initiates an interactive rebase, allowing you to edit, reorder, squash, or drop commits before applying them.</t>
+  </si>
+  <si>
+    <t>git rebase --onto &lt;new-base&gt; &lt;old-base&gt;</t>
+  </si>
+  <si>
+    <t>git rebase --skip-if-unchanged &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Skips rebasing if the branch has no new changes, allowing you to avoid unnecessary rebases.</t>
+  </si>
+  <si>
+    <t>git rebase --root</t>
+  </si>
+  <si>
+    <t>Rebases all commits from the root commit of the repository up to the current branch's tip.</t>
+  </si>
+  <si>
+    <t>git rebase --exec &lt;command&gt;</t>
+  </si>
+  <si>
+    <t>Runs the specified command after applying each commit during a rebase operation.</t>
+  </si>
+  <si>
+    <t>git rebase --ignore-date</t>
+  </si>
+  <si>
+    <t>Ignores commit dates and applies commits in the order they appear during a rebase operation.</t>
+  </si>
+  <si>
+    <t>git rebase --autostash</t>
+  </si>
+  <si>
+    <t>Automatically stashes and unstashes local changes before and after a rebase operation.</t>
+  </si>
+  <si>
+    <t>git rebase --strategy &lt;strategy&gt;</t>
+  </si>
+  <si>
+    <t>git rebase --strategy-option &lt;option&gt;</t>
+  </si>
+  <si>
+    <t>Specifies additional options for the selected merge strategy during a rebase operation.</t>
+  </si>
+  <si>
+    <t>git rebase --preserve-merges</t>
+  </si>
+  <si>
+    <t>Preserves merge commits during a rebase operation, instead of flattening them into individual commits.</t>
+  </si>
+  <si>
+    <t>git rebase --onto &lt;new-base&gt; &lt;old-base&gt; &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>git rebase --fork-point &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>git rebase --skip-empty</t>
+  </si>
+  <si>
+    <t>Skips applying empty commits during a rebase operation.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Moves a range of commits from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;old-base&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;new-base&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, replaying the commits on top of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;new-base&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies the merge strategy to be used during a rebase operation. Common strategies include </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>recursive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (default), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>resolve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>theirs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and more.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Moves a range of commits from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;old-base&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;new-base&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the specified </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;branch&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, replaying the commits on top of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;new-base&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Replays commits starting from the common ancestor of the current branch and the specified </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;branch&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ignoring commits that are already in the upstream branch.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6187,10 +6528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B419"/>
+  <dimension ref="A1:B439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="B465" sqref="B465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7971,1224 +8312,1373 @@
         <v>1193</v>
       </c>
     </row>
+    <row r="247" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="3" t="s">
+        <v>1498</v>
+      </c>
+    </row>
     <row r="248" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="3" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="21" t="s">
+      <c r="A248" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B249" s="22" t="s">
+      <c r="B248" s="22" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>1029</v>
+        <v>1501</v>
       </c>
       <c r="B250" t="s">
-        <v>1030</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>1031</v>
+        <v>1503</v>
       </c>
       <c r="B251" t="s">
-        <v>1032</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>1033</v>
+        <v>1505</v>
       </c>
       <c r="B252" t="s">
-        <v>1034</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>1035</v>
+        <v>1507</v>
       </c>
       <c r="B253" t="s">
-        <v>1036</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>1037</v>
+        <v>1509</v>
       </c>
       <c r="B254" t="s">
-        <v>1038</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>1039</v>
+        <v>1510</v>
       </c>
       <c r="B255" t="s">
-        <v>1040</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>1041</v>
+        <v>1512</v>
       </c>
       <c r="B256" t="s">
-        <v>1042</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>1043</v>
+        <v>1514</v>
       </c>
       <c r="B257" t="s">
-        <v>1044</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>1045</v>
+        <v>1516</v>
       </c>
       <c r="B258" t="s">
-        <v>1046</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>1047</v>
+        <v>1518</v>
       </c>
       <c r="B259" t="s">
-        <v>1048</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>1049</v>
+        <v>1520</v>
       </c>
       <c r="B260" t="s">
-        <v>1050</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>1051</v>
+        <v>1521</v>
       </c>
       <c r="B261" t="s">
-        <v>1052</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>1053</v>
+        <v>1523</v>
       </c>
       <c r="B262" t="s">
-        <v>1054</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>1055</v>
+        <v>1525</v>
       </c>
       <c r="B263" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="3" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="21" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B267" s="22" t="s">
+      <c r="B269" s="22" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B269" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>1203</v>
+        <v>1029</v>
       </c>
       <c r="B270" t="s">
-        <v>1204</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>1205</v>
+        <v>1031</v>
       </c>
       <c r="B271" t="s">
-        <v>1206</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>1207</v>
+        <v>1033</v>
       </c>
       <c r="B272" t="s">
-        <v>1208</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>1209</v>
+        <v>1035</v>
       </c>
       <c r="B273" t="s">
-        <v>1210</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>1211</v>
+        <v>1037</v>
       </c>
       <c r="B274" t="s">
-        <v>1212</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>1213</v>
+        <v>1039</v>
       </c>
       <c r="B275" t="s">
-        <v>1214</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>1215</v>
+        <v>1041</v>
       </c>
       <c r="B276" t="s">
-        <v>1216</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>1217</v>
+        <v>1043</v>
       </c>
       <c r="B277" t="s">
-        <v>1218</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>1219</v>
+        <v>1045</v>
       </c>
       <c r="B278" t="s">
-        <v>1220</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>1221</v>
+        <v>1047</v>
       </c>
       <c r="B279" t="s">
-        <v>1222</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>1223</v>
+        <v>1049</v>
       </c>
       <c r="B280" t="s">
-        <v>1224</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>1225</v>
+        <v>1051</v>
       </c>
       <c r="B281" t="s">
-        <v>1226</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>1227</v>
+        <v>1053</v>
       </c>
       <c r="B282" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="3" t="s">
-        <v>1229</v>
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="21" t="s">
+      <c r="A286" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B286" s="22" t="s">
+      <c r="B287" s="22" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B287" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>1231</v>
+        <v>1128</v>
       </c>
       <c r="B288" t="s">
-        <v>1232</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>1233</v>
+        <v>1201</v>
       </c>
       <c r="B289" t="s">
-        <v>1232</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>1234</v>
+        <v>1203</v>
       </c>
       <c r="B290" t="s">
-        <v>1235</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>1236</v>
+        <v>1205</v>
       </c>
       <c r="B291" t="s">
-        <v>1237</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>1238</v>
+        <v>1207</v>
       </c>
       <c r="B292" t="s">
-        <v>1239</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>1240</v>
+        <v>1209</v>
       </c>
       <c r="B293" t="s">
-        <v>1241</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>1242</v>
+        <v>1211</v>
       </c>
       <c r="B294" t="s">
-        <v>1243</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>1244</v>
+        <v>1213</v>
       </c>
       <c r="B295" t="s">
-        <v>1245</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>1246</v>
+        <v>1215</v>
       </c>
       <c r="B296" t="s">
-        <v>1247</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>1248</v>
+        <v>1217</v>
       </c>
       <c r="B297" t="s">
-        <v>1235</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>1249</v>
+        <v>1219</v>
       </c>
       <c r="B298" t="s">
-        <v>1250</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>1251</v>
+        <v>1221</v>
       </c>
       <c r="B299" t="s">
-        <v>1252</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>1253</v>
+        <v>1223</v>
       </c>
       <c r="B300" t="s">
-        <v>1254</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>1255</v>
+        <v>1225</v>
       </c>
       <c r="B301" t="s">
-        <v>1256</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>1257</v>
+        <v>1227</v>
       </c>
       <c r="B302" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B303" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B304" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="21" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="3" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B308" s="22" t="s">
+      <c r="B306" s="22" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>1136</v>
+        <v>1233</v>
       </c>
       <c r="B309" t="s">
-        <v>1264</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>1265</v>
+        <v>1234</v>
       </c>
       <c r="B310" t="s">
-        <v>1266</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>1267</v>
+        <v>1236</v>
       </c>
       <c r="B311" t="s">
-        <v>1268</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>1269</v>
+        <v>1238</v>
       </c>
       <c r="B312" t="s">
-        <v>1270</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>1271</v>
+        <v>1240</v>
       </c>
       <c r="B313" t="s">
-        <v>1272</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>1273</v>
+        <v>1242</v>
       </c>
       <c r="B314" t="s">
-        <v>1274</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>1275</v>
+        <v>1244</v>
       </c>
       <c r="B315" t="s">
-        <v>1276</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>1277</v>
+        <v>1246</v>
       </c>
       <c r="B316" t="s">
-        <v>1278</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>1279</v>
+        <v>1248</v>
       </c>
       <c r="B317" t="s">
-        <v>1280</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>1281</v>
+        <v>1249</v>
       </c>
       <c r="B318" t="s">
-        <v>1282</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>1283</v>
+        <v>1251</v>
       </c>
       <c r="B319" t="s">
-        <v>1284</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>1285</v>
+        <v>1253</v>
       </c>
       <c r="B320" t="s">
-        <v>1286</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>1287</v>
+        <v>1255</v>
       </c>
       <c r="B321" t="s">
-        <v>1288</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>1289</v>
+        <v>1257</v>
       </c>
       <c r="B322" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="3" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="21" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B326" s="22" t="s">
+      <c r="B328" s="22" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B328" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>1153</v>
+        <v>1136</v>
       </c>
       <c r="B329" t="s">
-        <v>1295</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>1296</v>
+        <v>1265</v>
       </c>
       <c r="B330" t="s">
-        <v>1297</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>1155</v>
+        <v>1267</v>
       </c>
       <c r="B331" t="s">
-        <v>1298</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>1299</v>
+        <v>1269</v>
       </c>
       <c r="B332" t="s">
-        <v>1300</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>1134</v>
+        <v>1271</v>
       </c>
       <c r="B333" t="s">
-        <v>1301</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>1302</v>
+        <v>1273</v>
       </c>
       <c r="B334" t="s">
-        <v>1303</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>1304</v>
+        <v>1275</v>
       </c>
       <c r="B335" t="s">
-        <v>1305</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>1306</v>
+        <v>1277</v>
       </c>
       <c r="B336" t="s">
-        <v>1307</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>1308</v>
+        <v>1279</v>
       </c>
       <c r="B337" t="s">
-        <v>1309</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>1310</v>
+        <v>1281</v>
       </c>
       <c r="B338" t="s">
-        <v>1311</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>1312</v>
+        <v>1283</v>
       </c>
       <c r="B339" t="s">
-        <v>1313</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>1314</v>
+        <v>1285</v>
       </c>
       <c r="B340" t="s">
-        <v>1315</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>1316</v>
+        <v>1287</v>
       </c>
       <c r="B341" t="s">
-        <v>1317</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>1318</v>
+        <v>1289</v>
       </c>
       <c r="B342" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A348" s="3" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="24" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="3" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B349" s="24" t="s">
+      <c r="B346" s="22" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>1147</v>
+        <v>1296</v>
       </c>
       <c r="B350" t="s">
-        <v>1357</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>1358</v>
+        <v>1155</v>
       </c>
       <c r="B351" t="s">
-        <v>1359</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>1360</v>
+        <v>1299</v>
       </c>
       <c r="B352" t="s">
-        <v>1361</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>1362</v>
+        <v>1134</v>
       </c>
       <c r="B353" t="s">
-        <v>1363</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>1364</v>
+        <v>1302</v>
       </c>
       <c r="B354" t="s">
-        <v>1371</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>1365</v>
+        <v>1304</v>
       </c>
       <c r="B355" t="s">
-        <v>1366</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>1367</v>
+        <v>1306</v>
       </c>
       <c r="B356" t="s">
-        <v>1368</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>1369</v>
+        <v>1308</v>
       </c>
       <c r="B357" t="s">
-        <v>1372</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>1370</v>
+        <v>1310</v>
       </c>
       <c r="B358" t="s">
-        <v>1373</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="23"/>
+      <c r="A359" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="23"/>
-    </row>
-    <row r="361" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="3" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A362" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="B362" s="22" t="s">
-        <v>255</v>
+      <c r="A360" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>1375</v>
+        <v>1320</v>
       </c>
       <c r="B363" t="s">
-        <v>1159</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>1157</v>
+        <v>1322</v>
       </c>
       <c r="B364" t="s">
-        <v>1376</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>1158</v>
+        <v>1324</v>
       </c>
       <c r="B365" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B367" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="3" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B369" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>1386</v>
+        <v>1147</v>
       </c>
       <c r="B370" t="s">
-        <v>1387</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>1388</v>
+        <v>1358</v>
       </c>
       <c r="B371" t="s">
-        <v>1389</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>1390</v>
+        <v>1360</v>
       </c>
       <c r="B372" t="s">
-        <v>1391</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>1392</v>
+        <v>1362</v>
       </c>
       <c r="B373" t="s">
-        <v>1437</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>1393</v>
+        <v>1364</v>
       </c>
       <c r="B374" t="s">
-        <v>1438</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>1394</v>
+        <v>1365</v>
       </c>
       <c r="B375" t="s">
-        <v>1439</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>1395</v>
+        <v>1367</v>
       </c>
       <c r="B376" t="s">
-        <v>1440</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="B377" t="s">
-        <v>1441</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>1397</v>
+        <v>1370</v>
       </c>
       <c r="B378" t="s">
-        <v>1442</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1443</v>
-      </c>
+      <c r="A379" s="23"/>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B380" t="s">
-        <v>1444</v>
+      <c r="A380" s="23"/>
+    </row>
+    <row r="381" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="3" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A382" s="25" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A383" s="21" t="s">
+      <c r="A382" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B383" s="22" t="s">
+      <c r="B382" s="22" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>1145</v>
+        <v>1157</v>
       </c>
       <c r="B384" t="s">
-        <v>1421</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>1417</v>
+        <v>1158</v>
       </c>
       <c r="B385" t="s">
-        <v>1422</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>1423</v>
+        <v>1378</v>
       </c>
       <c r="B386" t="s">
-        <v>1424</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>1425</v>
+        <v>1380</v>
       </c>
       <c r="B387" t="s">
-        <v>1426</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>1427</v>
+        <v>1382</v>
       </c>
       <c r="B388" t="s">
-        <v>1428</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>1429</v>
+        <v>1384</v>
       </c>
       <c r="B389" t="s">
-        <v>1430</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>1431</v>
+        <v>1386</v>
       </c>
       <c r="B390" t="s">
-        <v>1432</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>1419</v>
+        <v>1388</v>
       </c>
       <c r="B391" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A393" s="25" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A394" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="B394" s="22" t="s">
-        <v>255</v>
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>1445</v>
+        <v>1394</v>
       </c>
       <c r="B395" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
       <c r="B396" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>1407</v>
+        <v>1396</v>
       </c>
       <c r="B397" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="B398" t="s">
-        <v>1449</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>1409</v>
+        <v>1398</v>
       </c>
       <c r="B399" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>1451</v>
+        <v>1399</v>
       </c>
       <c r="B400" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B401" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B402" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A405" s="3" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A406" s="21" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B406" s="22" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="25" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B403" s="22" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1424</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>1145</v>
+        <v>1425</v>
       </c>
       <c r="B407" t="s">
-        <v>1402</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>1403</v>
+        <v>1427</v>
       </c>
       <c r="B408" t="s">
-        <v>1404</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>1405</v>
+        <v>1429</v>
       </c>
       <c r="B409" t="s">
-        <v>1406</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>1407</v>
+        <v>1431</v>
       </c>
       <c r="B410" t="s">
-        <v>1408</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>1409</v>
+        <v>1419</v>
       </c>
       <c r="B411" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B413" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1414</v>
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="25" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B414" s="22" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>1415</v>
+        <v>1445</v>
       </c>
       <c r="B415" t="s">
-        <v>1416</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="B416" t="s">
-        <v>1418</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="3" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="21" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B426" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
         <v>1419</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B437" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A418" t="s">
+    <row r="438" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A438" t="s">
         <v>1458</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B438" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A419" t="s">
+    <row r="439" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A439" t="s">
         <v>1457</v>
       </c>
     </row>

--- a/DevOps_Cheatsheet.xlsx
+++ b/DevOps_Cheatsheet.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Linux" sheetId="1" r:id="rId1"/>
     <sheet name="GIT" sheetId="6" r:id="rId2"/>
     <sheet name="Maven" sheetId="2" r:id="rId3"/>
-    <sheet name="Docker" sheetId="5" r:id="rId4"/>
-    <sheet name="K8s" sheetId="3" r:id="rId5"/>
+    <sheet name="Ansible" sheetId="8" r:id="rId4"/>
+    <sheet name="Docker" sheetId="5" r:id="rId5"/>
+    <sheet name="K8s" sheetId="3" r:id="rId6"/>
+    <sheet name="AWS" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1534">
   <si>
     <t>CREATING OBJECTS</t>
   </si>
@@ -5855,12 +5857,15 @@
       <t>, ignoring commits that are already in the upstream branch.</t>
     </r>
   </si>
+  <si>
+    <t>ANSIBLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5978,14 +5983,8 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6041,6 +6040,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF444654"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6168,7 +6173,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -6222,6 +6227,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -6517,10 +6525,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6530,7 +6542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+    <sheetView topLeftCell="A437" workbookViewId="0">
       <selection activeCell="B465" sqref="B465"/>
     </sheetView>
   </sheetViews>
@@ -10484,6 +10496,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="88.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
@@ -12585,7 +12622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B162"/>
   <sheetViews>
@@ -13687,4 +13724,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="70.88671875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>